--- a/biology/Histoire de la zoologie et de la botanique/August_Friedrich_Thienemann/August_Friedrich_Thienemann.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/August_Friedrich_Thienemann/August_Friedrich_Thienemann.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">August Friedrich Thienemann est un zoologiste et un écologue, né le 7 septembre 1882 à Gotha et mort le 22 avril 1960 à Plön.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ses travaux portent sur la biologie et l'écologie des eaux douces ; on le considère comme le fondateur de la limnologie (il redéfinit complètement le terme « limnologie » avec la publication de son manuel en 1925 pour remplacer la précédente définition de François-Alphonse FOREL créée en 1892).
 De 1901 à 1905, Thienemann étudie les sciences naturelles et la philosophie dans les universités de Greifswald, d'Innsbruck et d'Heidelberg. Il achève ces études sous la direction du professeur Lauterborn. Sa thèse porte sur les pupes de trichoptères. Il participe à la création de la revue Archiv für Hydrobiologie en 1906.
